--- a/example2.xlsx
+++ b/example2.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Example Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Example Sheet 1'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
